--- a/data_exploration/tag_stats/tag_stats_isolating.xlsx
+++ b/data_exploration/tag_stats/tag_stats_isolating.xlsx
@@ -79,13 +79,13 @@
     <t>SCONJ</t>
   </si>
   <si>
-    <t>_</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
     <t>INTJ</t>
+  </si>
+  <si>
+    <t>_</t>
   </si>
   <si>
     <t>TRAIN</t>
@@ -120,7 +120,7 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -192,6 +192,178 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>7</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="pos_tags_plot_chinese.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4000500"/>
+          <a:ext cx="12344425" cy="3429007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>7</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="pos_tags_plot_vietnamese.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4000500"/>
+          <a:ext cx="12344425" cy="3429007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>495325</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38103</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="pos_tags_plot_thai.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4000500"/>
+          <a:ext cx="12344425" cy="1371603"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>742975</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>7</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="pos_tags_plot_isolating.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4000500"/>
+          <a:ext cx="12344425" cy="3429007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1393,7 +1565,7 @@
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1443,7 +1615,7 @@
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1525,6 +1697,7 @@
     <mergeCell ref="P1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2270,7 +2443,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -2282,7 +2455,7 @@
         <v>100</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -2294,7 +2467,7 @@
         <v>99.99999999999999</v>
       </c>
       <c r="K16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L16">
         <v>7</v>
@@ -2306,7 +2479,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q16">
         <v>20</v>
@@ -2320,7 +2493,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2332,7 +2505,7 @@
         <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2344,7 +2517,7 @@
         <v>100</v>
       </c>
       <c r="K17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2356,7 +2529,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -2370,7 +2543,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2382,7 +2555,7 @@
         <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2394,7 +2567,7 @@
         <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2406,7 +2579,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -2420,7 +2593,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2432,7 +2605,7 @@
         <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2444,7 +2617,7 @@
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2456,7 +2629,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -2470,7 +2643,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2482,7 +2655,7 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2494,7 +2667,7 @@
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2506,7 +2679,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -2520,7 +2693,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2532,7 +2705,7 @@
         <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2544,7 +2717,7 @@
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2556,7 +2729,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -2576,6 +2749,7 @@
     <mergeCell ref="P1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2824,7 +2998,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2838,7 +3012,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2883,6 +3057,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3544,7 +3719,7 @@
         <v>99.99260537342863</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" s="1">
         <v>0.04342539517109606</v>
@@ -3562,7 +3737,7 @@
         <v>99.98048236442213</v>
       </c>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N18" s="1">
         <v>0.02285505325227408</v>
@@ -3573,7 +3748,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1">
         <v>0.007394626571358147</v>
@@ -3591,7 +3766,7 @@
         <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J19" s="1">
         <v>0.01951763557786142</v>
@@ -3649,7 +3824,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -3658,7 +3833,7 @@
         <v>99.99999999999999</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -3667,7 +3842,7 @@
         <v>100</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -3676,7 +3851,7 @@
         <v>99.99999999999999</v>
       </c>
       <c r="M21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
@@ -3693,5 +3868,6 @@
     <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>